--- a/专有名词速查字典.xlsx
+++ b/专有名词速查字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - whut.edu.cn\课件与教材\大二下\复习提纲\数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://whuteducn-my.sharepoint.com/personal/saltfish_whut_edu_cn/Documents/课件与教材/大二下/复习提纲/数据库/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="11_AD4DA82427541F7ACA7EB8ABA08B24C86AE8DE15" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6DA0D0F-B8C4-4FE3-9C4F-BD76C281AC5D}"/>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -689,7 +690,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/专有名词速查字典.xlsx
+++ b/专有名词速查字典.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://whuteducn-my.sharepoint.com/personal/saltfish_whut_edu_cn/Documents/课件与教材/大二下/复习提纲/数据库/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4DA82427541F7ACA7EB8ABA08B24C86AE8DE15" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6DA0D0F-B8C4-4FE3-9C4F-BD76C281AC5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{338CC9DB-C238-4810-832A-2E980DDFB186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15000" yWindow="0" windowWidth="7500" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>多值依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,126 +211,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>实体完整性约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modification anomalies</t>
+  </si>
+  <si>
+    <t>修正异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletion anomaly</t>
+  </si>
+  <si>
+    <t>删除异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertion anomaly</t>
+  </si>
+  <si>
+    <t>插入异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data inconsistency</t>
+  </si>
+  <si>
+    <t>数据不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data integrity problems</t>
+  </si>
+  <si>
+    <t>数据完整性问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain/key normal form</t>
+  </si>
+  <si>
+    <t>域 / 键范式</t>
+  </si>
+  <si>
+    <t>Boyce-Codd Normal Form</t>
+  </si>
+  <si>
+    <t>odd conditions</t>
+  </si>
+  <si>
+    <t>data constraints</t>
+  </si>
+  <si>
+    <t>数据约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single-attribute primary keys</t>
+  </si>
+  <si>
+    <t>单属性主键</t>
+  </si>
+  <si>
+    <t>transitive dependency</t>
+  </si>
+  <si>
+    <t>传递依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-key attribute</t>
+  </si>
+  <si>
+    <t>non-prime attribute</t>
+  </si>
+  <si>
+    <t>非主要属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalization strategy</t>
+  </si>
+  <si>
+    <t>规范化策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Step-by-Step” method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循序渐进法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Straight-to-BCNF</t>
+  </si>
+  <si>
+    <t>general normalization</t>
+  </si>
+  <si>
+    <t>直达BCNF法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用归一化法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain/Key Normal Form </t>
+  </si>
+  <si>
+    <t>域/键范式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project-Join Normal Form</t>
+  </si>
+  <si>
+    <t>（项目加入范式）第五范式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/K范式（域/键范式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC范式（第四范式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multidetermine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anomaly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非主键属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>entity integrity constraint</t>
-  </si>
-  <si>
-    <t>实体完整性约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modification anomalies</t>
-  </si>
-  <si>
-    <t>修正异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deletion anomaly</t>
-  </si>
-  <si>
-    <t>删除异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insertion anomaly</t>
-  </si>
-  <si>
-    <t>插入异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data inconsistency</t>
-  </si>
-  <si>
-    <t>数据不一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data integrity problems</t>
-  </si>
-  <si>
-    <t>数据完整性问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>domain/key normal form</t>
-  </si>
-  <si>
-    <t>域 / 键范式</t>
-  </si>
-  <si>
-    <t>Boyce-Codd Normal Form</t>
-  </si>
-  <si>
-    <t>BC范式</t>
-  </si>
-  <si>
-    <t>odd conditions</t>
-  </si>
-  <si>
-    <t>奇数条件</t>
-  </si>
-  <si>
-    <t>data constraints</t>
-  </si>
-  <si>
-    <t>数据约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single-attribute primary keys</t>
-  </si>
-  <si>
-    <t>单属性主键</t>
-  </si>
-  <si>
-    <t>transitive dependency</t>
-  </si>
-  <si>
-    <t>传递依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non-key attribute</t>
-  </si>
-  <si>
-    <t>非键属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non-prime attribute</t>
-  </si>
-  <si>
-    <t>非主要属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalization strategy</t>
-  </si>
-  <si>
-    <t>规范化策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Step-by-Step” method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>循序渐进法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Straight-to-BCNF</t>
-  </si>
-  <si>
-    <t>general normalization</t>
-  </si>
-  <si>
-    <t>直达BCNF法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用归一化法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound clauses</t>
+  </si>
+  <si>
+    <t>复合子句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通配符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wildcard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,16 +747,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -710,97 +770,105 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -814,18 +882,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -854,194 +922,491 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B35">
-    <sortCondition ref="A4"/>
+  <sortState ref="A1:B43">
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010076ED44A9C31B154DBDEADD0C92ED5BD2" ma:contentTypeVersion="10" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="e061f36a3e467337d85dc1ab1e5c3c0e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b94c9e14-868f-40a0-8ced-6368de6a5d4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c0bb5c29904a5e05b6cd02c4673798e" ns3:_="">
+    <xsd:import namespace="b94c9e14-868f-40a0-8ced-6368de6a5d4d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b94c9e14-868f-40a0-8ced-6368de6a5d4d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="内容类型"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="标题"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A868B6A2-8C95-41B2-9376-F647E5C5A4BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b94c9e14-868f-40a0-8ced-6368de6a5d4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E57BD4C1-270F-4DC7-9088-D975A5463C81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90CF77E3-5061-4AEE-8C15-71EFA1DBD59F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b94c9e14-868f-40a0-8ced-6368de6a5d4d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/专有名词速查字典.xlsx
+++ b/专有名词速查字典.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://whuteducn-my.sharepoint.com/personal/saltfish_whut_edu_cn/Documents/课件与教材/大二下/复习提纲/数据库/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{338CC9DB-C238-4810-832A-2E980DDFB186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{338CC9DB-C238-4810-832A-2E980DDFB186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1BCCD962-0CFD-4408-9E0C-8E16AB51D0B3}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="0" windowWidth="7500" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="0" windowWidth="7500" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
   <si>
     <t>多值依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Field </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Record</t>
   </si>
   <si>
@@ -299,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“Step-by-Step” method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>循序渐进法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,6 +382,185 @@
   </si>
   <si>
     <t>wildcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metadata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporting applications</t>
+  </si>
+  <si>
+    <t>报告应用程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client/server application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端/服务器应用程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业智能系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODBMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向对象的数据库管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object-relational DBMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小存货单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊控制并发机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business intelligence (BI) systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relational Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OODBMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象关系数据库管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非首字母缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可扩展标记语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用描述，发现和集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data warehouses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operational databases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data mart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concurrency-control mechanisms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web服务描述语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Field </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step-by-Step method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,49 +917,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -802,366 +972,542 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B43">
+  <sortState ref="A1:B72">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1171,6 +1517,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010076ED44A9C31B154DBDEADD0C92ED5BD2" ma:contentTypeVersion="10" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="e061f36a3e467337d85dc1ab1e5c3c0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b94c9e14-868f-40a0-8ced-6368de6a5d4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c0bb5c29904a5e05b6cd02c4673798e" ns3:_="">
     <xsd:import namespace="b94c9e14-868f-40a0-8ced-6368de6a5d4d"/>
@@ -1354,22 +1715,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90CF77E3-5061-4AEE-8C15-71EFA1DBD59F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b94c9e14-868f-40a0-8ced-6368de6a5d4d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E57BD4C1-270F-4DC7-9088-D975A5463C81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A868B6A2-8C95-41B2-9376-F647E5C5A4BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1385,28 +1755,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E57BD4C1-270F-4DC7-9088-D975A5463C81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90CF77E3-5061-4AEE-8C15-71EFA1DBD59F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b94c9e14-868f-40a0-8ced-6368de6a5d4d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>